--- a/Documents/Shopping List 12.02.2025 .xlsx
+++ b/Documents/Shopping List 12.02.2025 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vovmo\Documents\Bäumlihof 3A\Maturaarbeit\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FD3925-6A18-49B5-8A66-EE8E7BDBCDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD4A12C-0844-46AA-A99A-3EBCF464C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Part</t>
   </si>
@@ -62,29 +62,75 @@
     <t>Driver Heatsink</t>
   </si>
   <si>
-    <t>Driver TMC2130</t>
-  </si>
-  <si>
-    <t>TMCSILENTSTEPSTICK SPI</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
     <t>digikey.com</t>
   </si>
   <si>
-    <t>ESP32-S3</t>
-  </si>
-  <si>
-    <t>ESP32-S3-DEVKITC-1-N32R8V</t>
+    <t>EEU-FM1H101</t>
+  </si>
+  <si>
+    <t>Capacitor 100uF 50V</t>
+  </si>
+  <si>
+    <t>Driver TMC5160</t>
+  </si>
+  <si>
+    <t>TMC5160SILENTSTEPSTICK</t>
+  </si>
+  <si>
+    <t>Price pP with VAT</t>
+  </si>
+  <si>
+    <t>Stepper Motor 60Ncm</t>
+  </si>
+  <si>
+    <t>omc-stepperonline.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price (in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gearbox 20:1 Nema 17</t>
+  </si>
+  <si>
+    <t>www.omc-stepperonline.com</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,21 +155,170 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -131,11 +326,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -419,253 +624,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="13">
         <v>201835</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
+        <f>E2*1.081</f>
+        <v>1.081</v>
+      </c>
+      <c r="G2" s="2">
         <f>D2*E2</f>
         <v>6</v>
       </c>
-      <c r="H2">
-        <f>SUM(F2:F25)</f>
-        <v>58.42</v>
-      </c>
-      <c r="I2">
-        <f>H2*1.081</f>
-        <v>63.15202</v>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <f>SUM(G2:G4)</f>
+        <v>30.25</v>
+      </c>
+      <c r="J2" s="7">
+        <f>I2*1.081</f>
+        <v>32.700249999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11.54</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F25" si="0">E3*1.081</f>
+        <v>12.474739999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3*E3</f>
+        <v>23.08</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="F4" s="10">
+        <f>E4*1.081</f>
+        <v>0.42159000000000002</v>
+      </c>
+      <c r="G4" s="10">
+        <f>D4*E4</f>
+        <v>1.17</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F25" si="0">D3*E3</f>
-        <v>37.119999999999997</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E7" s="2">
+        <f>D7*0.9</f>
+        <v>8.0730000000000004</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="7">
+        <f>SUM(E7:E8)</f>
+        <v>35.001000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>15.3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D8" s="10">
+        <v>29.92</v>
+      </c>
+      <c r="E8" s="10">
+        <f>D8*0.9</f>
+        <v>26.928000000000001</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{202D6CB6-8B31-4AEA-9484-26A0D3F9A669}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{29BCEB32-2F53-4184-9E41-17B14A803FD7}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D191FAD9-DE1E-4ADE-99F9-CBF68523296E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B08D218C-E0C6-4993-9091-E9AA101CFC9C}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{01EEE0C3-9AA5-4E6E-B018-071C80BCBF46}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{C12D85E1-CAC3-4ECF-9977-CE445E43F585}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
